--- a/biology/Biologie cellulaire et moléculaire/KDM2B/KDM2B.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/KDM2B/KDM2B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le KDM2B (pour lysine, donc l’abréviation est K, déméthylase 2B), ou NDY1, est une protéine dont le gène est KDM2B situé sur le chromosome 12 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il joue un rôle d'oncogène, facilitant la survenue de différents cancers, dont la leucémie aiguë myéloïde[5] ou le cancer du pancréas[6]. Il contribue à la prolifération des fibroblastes[7] et favorise la formation et l'entretien de cellules soucbes pluripotentes[8]. 
-Il interagit avec le PRC1[9] qui permet de réprimer l'expression de certains gènes. L'expression du KDM2B est régulé par le SOX2 et l'OCT4[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il joue un rôle d'oncogène, facilitant la survenue de différents cancers, dont la leucémie aiguë myéloïde ou le cancer du pancréas. Il contribue à la prolifération des fibroblastes et favorise la formation et l'entretien de cellules soucbes pluripotentes. 
+Il interagit avec le PRC1 qui permet de réprimer l'expression de certains gènes. L'expression du KDM2B est régulé par le SOX2 et l'OCT4.
 </t>
         </is>
       </c>
